--- a/mbs-perturbation/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3344827586206897</v>
+        <v>0.2360515021459227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4217391304347826</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3730769230769231</v>
+        <v>0.2375809935205184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1544325239977414</v>
+        <v>0.1761151891586674</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.927007299270073</v>
+        <v>0.322463768115942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5497835497835498</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6902173913043478</v>
+        <v>0.3510848126232741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9357613401091662</v>
+        <v>0.2569922830792396</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3403141361256545</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2826086956521739</v>
+        <v>0.2695652173913043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3087885985748218</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3716824196597354</v>
+        <v>0.3762003780718337</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.35</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3130434782608696</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3295194508009154</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="E5" t="n">
-        <v>0.412476370510397</v>
+        <v>0.4329867674858223</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5614035087719298</v>
+        <v>0.3053691275167785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2782608695652174</v>
+        <v>0.3956521739130435</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.3446969696969697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4439319470699433</v>
+        <v>0.1916257088846881</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5022067579489737</v>
+        <v>0.3301008232177005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3690871447393186</v>
+        <v>0.3187954074910597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4147390774025643</v>
+        <v>0.3184555009045865</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4636569202693966</v>
+        <v>0.2867840653360502</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2360515021459227</v>
+        <v>0.397887323943662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2391304347826087</v>
+        <v>0.5707070707070707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2375809935205184</v>
+        <v>0.4688796680497925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1761151891586674</v>
+        <v>0.4705387205387205</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.322463768115942</v>
+        <v>0.640926640926641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3852813852813853</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3510848126232741</v>
+        <v>0.7264770240700219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2569922830792396</v>
+        <v>0.7337771655953474</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4366197183098591</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2695652173913043</v>
+        <v>0.5505050505050505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6264367816091954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3762003780718337</v>
+        <v>0.6603917967554331</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.35</v>
+        <v>0.8118279569892473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.7864583333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4329867674858223</v>
+        <v>0.8051838178741733</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3053691275167785</v>
+        <v>0.3854961832061068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3956521739130435</v>
+        <v>0.5126903553299492</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3446969696969697</v>
+        <v>0.4400871459694989</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1916257088846881</v>
+        <v>0.4560580423524586</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3301008232177005</v>
+        <v>0.5925609543464647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3187954074910597</v>
+        <v>0.6469825155104343</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3184555009045865</v>
+        <v>0.6096677906063684</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2867840653360502</v>
+        <v>0.6251899086232265</v>
       </c>
     </row>
   </sheetData>
